--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_008.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_008.xlsx
@@ -31,304 +31,304 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295021AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Maximizing reactor water cleanup flow</t>
-  </si>
-  <si>
-    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295024EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Suppression pool makeup</t>
-  </si>
-  <si>
-    <t>(295004AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Prevention of inadvertent system(s) actuation upon restoration of DC power</t>
-  </si>
-  <si>
-    <t>(295031EK2.21) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Alternate injection systems</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
-  </si>
-  <si>
-    <t>(700000AA2.02) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator voltage limitations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
-  </si>
-  <si>
-    <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295030EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) HPCI shutdown</t>
+  </si>
+  <si>
+    <t>(295004AA1.04) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
+  </si>
+  <si>
+    <t>(295016AK2.01) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Remote shutdown panel</t>
+  </si>
+  <si>
+    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(295001AA2.11) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual loop flow(s)</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Refueling interlocks</t>
+  </si>
+  <si>
+    <t>(295031EA1.13) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control system</t>
   </si>
   <si>
     <t>(295026EK2.08) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
   </si>
   <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295037EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Bypassing rod insertion blocks</t>
-  </si>
-  <si>
-    <t>(600000AA2.03) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Fire alarm</t>
-  </si>
-  <si>
-    <t>(295018AA1.08) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Plant operations</t>
-  </si>
-  <si>
-    <t>(295003AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Station blackout</t>
-  </si>
-  <si>
-    <t>(295038EK2.03) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295001AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Idle loop/reverse flow</t>
-  </si>
-  <si>
-    <t>(295029EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295002AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Loss of heat sink</t>
-  </si>
-  <si>
-    <t>(295020AK2.03) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell or containment ventilation</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295035EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Secondary containment ventilation alignment</t>
-  </si>
-  <si>
-    <t>(295022AA2.03) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD mechanism temperatures</t>
+    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Increasing drywell cooling</t>
+  </si>
+  <si>
+    <t>(295018AA1.04) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295005AK2.03) Knowledge of the relationship between the (APE 5) MAIN TURBINE GENERATOR TRIP and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RFCS initiation</t>
+  </si>
+  <si>
+    <t>(295011AK2.01) Knowledge of the relationship between the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295013AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Localized heating</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Changing recirculation flow</t>
+  </si>
+  <si>
+    <t>(295032EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Fire protection system</t>
+  </si>
+  <si>
+    <t>(223002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Nuclear boiler instrumentation</t>
+  </si>
+  <si>
+    <t>(217000K4.03) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Prevents pump overheating</t>
+  </si>
+  <si>
+    <t>(215003K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor manual control</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) RWCU system lineup</t>
+  </si>
+  <si>
+    <t>(205000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU</t>
+  </si>
+  <si>
+    <t>(259002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Pump runout</t>
+  </si>
+  <si>
+    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(263000A3.02) Ability to monitor automatic operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Breaker trips</t>
+  </si>
+  <si>
+    <t>(261000A2.11) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High containment pressure</t>
+  </si>
+  <si>
+    <t>(300000K2.01) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Instrument air compressor</t>
+  </si>
+  <si>
+    <t>(209002K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Abnormal suppression pool water level</t>
+  </si>
+  <si>
+    <t>(209001K4.03) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Motor cooling</t>
+  </si>
+  <si>
+    <t>(203000K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291007K1.06) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Reason for demineralizer temperature and flow limits</t>
+  </si>
+  <si>
+    <t>(215004A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(400000K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) (BWR 4, 5, 6)</t>
   </si>
   <si>
     <t>(215005K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Control rod symmetrical patterns</t>
   </si>
   <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(215004A2.05) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system </t>
-  </si>
-  <si>
-    <t>(259002K3.04) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(510000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Fire protection system</t>
-  </si>
-  <si>
-    <t>(400000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW temperature</t>
-  </si>
-  <si>
-    <t>(217000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(300000K4.05) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining dry air</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(203000K6.17) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Suppression pool suction strainer clogging</t>
-  </si>
-  <si>
-    <t>(239002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
-  </si>
-  <si>
-    <t>(218000A4.02) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic initiation</t>
-  </si>
-  <si>
-    <t>(209002A2.05) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(209001K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
-  </si>
-  <si>
-    <t>(262001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main turbine generator and auxiliaries system</t>
-  </si>
-  <si>
-    <t>(261000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) SGTS train temperature</t>
-  </si>
-  <si>
-    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
-  </si>
-  <si>
-    <t>(263000K4.06) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Divisional separation</t>
-  </si>
-  <si>
-    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (291003K1.06) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of governors and other mechanical controllers</t>
-  </si>
-  <si>
-    <t>(205000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(215005K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) LPRM detector location and core symmetry</t>
-  </si>
-  <si>
-    <t>(262002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPIS</t>
-  </si>
-  <si>
-    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
-  </si>
-  <si>
-    <t>(259002K3.03) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Rod worth minimizer</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(201003K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(201005K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Transition zone</t>
-  </si>
-  <si>
-    <t>(219000A4.02) Ability to manually operate and/or monitor the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve lineup</t>
-  </si>
-  <si>
-    <t>(204000A2.02) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pressure control valve failure</t>
+    <t>(262001A4.03) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Local operation of breakers</t>
+  </si>
+  <si>
+    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
+  </si>
+  <si>
+    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
+  </si>
+  <si>
+    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
+  </si>
+  <si>
+    <t>(223002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(217000K4.09) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Initiation reset</t>
+  </si>
+  <si>
+    <t>(215003K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(286000A2.01) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System logic failure</t>
+  </si>
+  <si>
+    <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
+  </si>
+  <si>
+    <t>(239001K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.7 / 45.7) Main turbine trip</t>
+  </si>
+  <si>
+    <t>(201001K4.08) Knowledge of (SF1 CRDH) CRD HYDRAULIC SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.2-3 / 41.6-7 / 41.10 / 41.12 / 45.1-6) Controlling control rod drive header pressure</t>
   </si>
   <si>
     <t>(268000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 RW) RADWASTE SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Secondary containment drain sumps</t>
   </si>
   <si>
-    <t>(241000K1.38) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(223001A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) RCS leakage</t>
-  </si>
-  <si>
-    <t>(245000A3.10) Ability to monitor automatic operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.7 / 45.7) Voltage regulator</t>
-  </si>
-  <si>
-    <t>(230000K4.04) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of piping overpressurization</t>
-  </si>
-  <si>
-    <t>(234000K4.06) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Protection from dropping a fuel assembly</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (291004K1.19) PUMPS (CFR: 41.3) (CENTRIFUGAL) Safety procedure and precautions associated with centrifugal pumps</t>
+  </si>
+  <si>
+    <t>(245000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.5 / 45.5) Turbine valve position</t>
+  </si>
+  <si>
+    <t>(223001K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Penetration cooling system</t>
+  </si>
+  <si>
+    <t>(510001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(241000A4.18) Ability to manually operate and/or monitor the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Turbine shell warming</t>
+  </si>
+  <si>
+    <t>(288000A3.01) Ability to monitor automatic operation of the (SF9 PVS) PLANT VENTILATION SYSTEMS including: (CFR: 41.7 / 45.7) Isolation/initiation signals</t>
+  </si>
+  <si>
+    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(293009K1.13) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Define MAPLHGR</t>
+  </si>
+  <si>
+    <t>(293010K1.01) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the brittle fracture mode of failure</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(295003AA2.03) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery status</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295024EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(295010AA2.05) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell air cooler drain flow</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295017AA2.05) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
+  </si>
+  <si>
+    <t>(211000A2.09) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic or manual initiation failure</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(259002A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) FWCI system failure alarm</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(234000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) Mechanically bound fuel assembly</t>
+  </si>
+  <si>
+    <t>(202002A2.05) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Scoop tube lockup (BWR 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
-  </si>
-  <si>
-    <t>(292006K1.02) FISSION PRODUCT POISONS (CFR: 41.1) State the characteristics of xenon-135 as a fission product poison</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(292005K1.01) CONTROL RODS (CFR: 41.1) Relate notch and rod position</t>
-  </si>
-  <si>
-    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
-  </si>
-  <si>
-    <t>(293008K1.29) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Describe the effects of increasing bundle power on bundle flow resistance</t>
-  </si>
-  <si>
-    <t>(293009K1.39) CORE THERMAL LIMITS (CFR: 41.14) For the following plant operating or accident condition, identify which of the three core thermal limits are most limiting: Full power operation</t>
-  </si>
-  <si>
-    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
-  </si>
-  <si>
-    <t>(295017AA2.05) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295014AA2.03) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cause of reactivity addition</t>
-  </si>
-  <si>
-    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(217000A2.09) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of vacuum pump</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(215003A2.03) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
-  </si>
-  <si>
-    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(290001A2.04) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High airborne radiation</t>
-  </si>
-  <si>
-    <t>(201001) (SF1 CRDH) CRD HYDRAULIC SYSTEM (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>G</t>
@@ -337,16 +337,22 @@
     <t>K3</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>K5</t>
@@ -358,12 +364,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,31 +385,55 @@
     <t>T</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>700000</t>
+    <t>600000</t>
   </si>
   <si>
     <t>295019</t>
@@ -418,184 +442,160 @@
     <t>295027</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295020</t>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295013</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295022</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>400000</t>
   </si>
   <si>
     <t>215005</t>
   </si>
   <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>259002</t>
+    <t>262001</t>
   </si>
   <si>
     <t>510000</t>
   </si>
   <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
     <t>239002</t>
   </si>
   <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
     <t>212000</t>
   </si>
   <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>201003</t>
+    <t>286000</t>
   </si>
   <si>
     <t>201005</t>
   </si>
   <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>204000</t>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>201001</t>
   </si>
   <si>
     <t>268000</t>
   </si>
   <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
     <t>241000</t>
   </si>
   <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>230000</t>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295017</t>
   </si>
   <si>
     <t>234000</t>
   </si>
   <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>226001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D29" t="s">
         <v>112</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D34" t="s">
         <v>113</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="D40" t="s">
         <v>112</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,7 +1715,7 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
         <v>113</v>
@@ -1732,7 +1732,7 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
         <v>114</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D51" t="s">
         <v>112</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,7 +1919,7 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D57" t="s">
         <v>112</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
         <v>113</v>
@@ -2021,7 +2021,7 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D63" t="s">
         <v>114</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="s">
         <v>105</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="D80" t="s">
         <v>105</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="D82" t="s">
         <v>105</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D85" t="s">
         <v>105</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D88" t="s">
         <v>105</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2534,7 +2534,7 @@
         <v>3.7</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="D94" t="s">
         <v>105</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
